--- a/Escamarla.Tasks.xlsx
+++ b/Escamarla.Tasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="89">
   <si>
     <t>Escamarla Project</t>
   </si>
@@ -284,10 +284,13 @@
     <t>Traspasar dominios dzarqutectura &amp; elcaramelo from 1and1 to AWS</t>
   </si>
   <si>
-    <t>CloudFormation Hagh availability, Monitoring and Backups TEMPLATE</t>
-  </si>
-  <si>
     <t>Finish. DevOps on AWS: Deep Dive on Infrastructure as Code</t>
+  </si>
+  <si>
+    <t>CloudFormation High availability, Monitoring and Backups TEMPLATE</t>
+  </si>
+  <si>
+    <t>Assigned</t>
   </si>
 </sst>
 </file>
@@ -329,7 +332,148 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -344,7 +488,23 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:F71" totalsRowShown="0">
-  <autoFilter ref="A4:F71"/>
+  <autoFilter ref="A4:F71">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Assigned"/>
+        <filter val="Open"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A5:F68">
+    <sortCondition ref="F4:F71"/>
+  </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="Number"/>
     <tableColumn id="2" name="Area"/>
@@ -623,7 +783,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,6 +791,7 @@
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -665,6 +826,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>29</v>
+      </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -677,50 +841,74 @@
       <c r="E5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>25</v>
+      </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>57</v>
+      </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
       </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>68</v>
+      </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>32</v>
+      </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -728,60 +916,78 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20</v>
+      </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -790,355 +996,412 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>14</v>
-      </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="C24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>11</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
+      <c r="C28" t="s">
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33">
         <v>2</v>
       </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>40</v>
+      </c>
       <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E34" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>48</v>
+      </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
@@ -1146,499 +1409,708 @@
         <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>38</v>
+      </c>
       <c r="B37" t="s">
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E37" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
         <v>28</v>
       </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E40" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>42</v>
+      </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E41" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>30</v>
+      </c>
       <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
         <v>13</v>
       </c>
-      <c r="D42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>28</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>35</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>55</v>
       </c>
-      <c r="E43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>59</v>
       </c>
-      <c r="E45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>53</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>61</v>
       </c>
-      <c r="E47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" t="s">
-        <v>65</v>
-      </c>
-      <c r="E51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" t="s">
-        <v>73</v>
-      </c>
-      <c r="E58" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" t="s">
-        <v>75</v>
-      </c>
-      <c r="E59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" t="s">
-        <v>74</v>
-      </c>
-      <c r="E60" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
         <v>20</v>
       </c>
-      <c r="D61" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" t="s">
-        <v>77</v>
-      </c>
-      <c r="E62" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" t="s">
-        <v>78</v>
-      </c>
-      <c r="E63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E64" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" t="s">
-        <v>80</v>
-      </c>
-      <c r="E65" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" t="s">
-        <v>82</v>
-      </c>
       <c r="D67" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="E67" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>26</v>
+      </c>
       <c r="B68" t="s">
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="E68" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>11</v>
+      </c>
       <c r="B69" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E69" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>27</v>
+      </c>
       <c r="B70" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="E70" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>34</v>
+      </c>
       <c r="B71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="E71" t="s">
         <v>23</v>
       </c>
+      <c r="F71">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A5:F71">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"Assigned"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
